--- a/tabelle.xlsx
+++ b/tabelle.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/stefanopepe/Desktop/MAXI/challenge-operating-room2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanopepe/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="fase pre" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="statistica pre" sheetId="5" r:id="rId4"/>
     <sheet name="Foglio2" sheetId="4" r:id="rId5"/>
     <sheet name="statistica post" sheetId="3" r:id="rId6"/>
+    <sheet name="analissi inferenziale" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="90">
   <si>
     <t>NOMI</t>
   </si>
@@ -204,12 +205,111 @@
   <si>
     <t>risposte errate fase post</t>
   </si>
+  <si>
+    <t>Statistica</t>
+  </si>
+  <si>
+    <t>Gruppo 1 (n=8)</t>
+  </si>
+  <si>
+    <t>Gruppo 2 (n=6)</t>
+  </si>
+  <si>
+    <t>Corrette (mean ± SD)</t>
+  </si>
+  <si>
+    <t>13.5 ± 3.07</t>
+  </si>
+  <si>
+    <t>18.7 ± 1.03</t>
+  </si>
+  <si>
+    <t>Sbagliate (mean ± SD)</t>
+  </si>
+  <si>
+    <t>6.5 ± 3.07</t>
+  </si>
+  <si>
+    <t>1.33 ± 1.03</t>
+  </si>
+  <si>
+    <t>Totale domande</t>
+  </si>
+  <si>
+    <t>% corrette (mean ± SD)</t>
+  </si>
+  <si>
+    <t>67.5 ± 15.35</t>
+  </si>
+  <si>
+    <t>93.3 ± 5.16</t>
+  </si>
+  <si>
+    <t>Min % corrette</t>
+  </si>
+  <si>
+    <t>Max % corrette</t>
+  </si>
+  <si>
+    <t>25° percentile % corrette</t>
+  </si>
+  <si>
+    <t>63.75</t>
+  </si>
+  <si>
+    <t>91.25</t>
+  </si>
+  <si>
+    <t>50° percentile % corrette</t>
+  </si>
+  <si>
+    <t>75° percentile % corrette</t>
+  </si>
+  <si>
+    <t>Test statistici tra i gruppi:</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Valore</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>Interpretazione</t>
+  </si>
+  <si>
+    <t>T-test (media % corrette)</t>
+  </si>
+  <si>
+    <t>t = -4.436</t>
+  </si>
+  <si>
+    <t>0.0016</t>
+  </si>
+  <si>
+    <t>Differenza significativa tra i gruppi</t>
+  </si>
+  <si>
+    <t>Chi-quadro corrette/errate</t>
+  </si>
+  <si>
+    <t>χ² = 25.667</t>
+  </si>
+  <si>
+    <t>&lt; 0.0001</t>
+  </si>
+  <si>
+    <t>Distribuzione risposte significativamente diversa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,6 +342,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -320,7 +428,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -330,6 +438,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
@@ -902,11 +1011,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="495741136"/>
-        <c:axId val="495744400"/>
+        <c:axId val="1953977840"/>
+        <c:axId val="2036535072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="495741136"/>
+        <c:axId val="1953977840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +1058,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495744400"/>
+        <c:crossAx val="2036535072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -957,7 +1066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495744400"/>
+        <c:axId val="2036535072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1007,7 +1116,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495741136"/>
+        <c:crossAx val="1953977840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1135,7 +1244,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1260,7 +1368,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1358,11 +1465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="495757360"/>
-        <c:axId val="495760112"/>
+        <c:axId val="2034264592"/>
+        <c:axId val="1972634432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="495757360"/>
+        <c:axId val="2034264592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,7 +1512,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495760112"/>
+        <c:crossAx val="1972634432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1413,7 +1520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="495760112"/>
+        <c:axId val="1972634432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1571,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="495757360"/>
+        <c:crossAx val="2034264592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1558,7 +1665,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1683,11 +1789,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="487334320"/>
-        <c:axId val="487336368"/>
+        <c:axId val="2011009056"/>
+        <c:axId val="1999920704"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="487334320"/>
+        <c:axId val="2011009056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,7 +1836,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487336368"/>
+        <c:crossAx val="1999920704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1738,7 +1844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="487336368"/>
+        <c:axId val="1999920704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1788,7 +1894,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487334320"/>
+        <c:crossAx val="2011009056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1877,7 +1983,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1978,7 +2083,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2126,7 +2230,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2221,11 +2324,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="487367808"/>
-        <c:axId val="487370560"/>
+        <c:axId val="1999663392"/>
+        <c:axId val="1999913088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="487367808"/>
+        <c:axId val="1999663392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2385,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487370560"/>
+        <c:crossAx val="1999913088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2290,7 +2393,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="487370560"/>
+        <c:axId val="1999913088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2402,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487367808"/>
+        <c:crossAx val="1999663392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2313,7 +2416,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2493,7 +2595,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2670,11 +2771,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="487409232"/>
-        <c:axId val="487411984"/>
+        <c:axId val="1972645008"/>
+        <c:axId val="1972646368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="487409232"/>
+        <c:axId val="1972645008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2716,7 +2817,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487411984"/>
+        <c:crossAx val="1972646368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2724,7 +2825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="487411984"/>
+        <c:axId val="1972646368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2874,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487409232"/>
+        <c:crossAx val="1972645008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2787,7 +2888,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2904,7 +3004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3005,7 +3104,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3141,7 +3239,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3224,11 +3321,11 @@
         </c:dLbls>
         <c:gapWidth val="444"/>
         <c:overlap val="-90"/>
-        <c:axId val="487438672"/>
-        <c:axId val="487441424"/>
+        <c:axId val="1999775728"/>
+        <c:axId val="1999778048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="487438672"/>
+        <c:axId val="1999775728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,7 +3382,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="487441424"/>
+        <c:crossAx val="1999778048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3293,16 +3390,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="487441424"/>
+        <c:axId val="1999778048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487438672"/>
+        <c:crossAx val="1999775728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3316,7 +3414,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8939,7 +9036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -9108,4 +9205,176 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>